--- a/result/with_base/134/arousal/s07_4.xlsx
+++ b/result/with_base/134/arousal/s07_4.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7287946343421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41734.83203125</v>
+        <v>11293.04931640625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7654545361345465</v>
+        <v>0.773700104040258</v>
       </c>
       <c r="E2" t="n">
-        <v>41733.17578125</v>
+        <v>11290.94818474265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8375000059604645</v>
+        <v>0.8370535671710968</v>
       </c>
       <c r="C3" t="n">
-        <v>40960.625</v>
+        <v>10994.33544921875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8605681711977179</v>
+        <v>0.8532037805108463</v>
       </c>
       <c r="E3" t="n">
-        <v>40961.11860795454</v>
+        <v>10993.36333869485</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8426339328289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40195.14453125</v>
+        <v>10701.314453125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.896249998699535</v>
+        <v>0.8897715351160835</v>
       </c>
       <c r="E4" t="n">
-        <v>40194.8125</v>
+        <v>10700.16383272059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.8794642984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39437.384765625</v>
+        <v>10413.73193359375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9172727357257496</v>
+        <v>0.906381302020129</v>
       </c>
       <c r="E5" t="n">
-        <v>39436.140625</v>
+        <v>10412.24931066176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8761160671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38690.419921875</v>
+        <v>10131.6533203125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9363636320287531</v>
+        <v>0.9134716391563416</v>
       </c>
       <c r="E6" t="n">
-        <v>38688.42933238636</v>
+        <v>10129.92055376838</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.8800223171710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37954.458984375</v>
+        <v>9854.92431640625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9493181705474854</v>
+        <v>0.9315257352941176</v>
       </c>
       <c r="E7" t="n">
-        <v>37951.74431818182</v>
+        <v>9853.087143841913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.88671875</v>
       </c>
       <c r="C8" t="n">
-        <v>37229.8203125</v>
+        <v>9583.5546875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9498863545331088</v>
+        <v>0.9451155452167287</v>
       </c>
       <c r="E8" t="n">
-        <v>37226.96271306818</v>
+        <v>9582.091050091913</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8875000178813934</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36516.283203125</v>
+        <v>9318.50244140625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.9520089275696698</v>
       </c>
       <c r="E9" t="n">
-        <v>36513.67223011364</v>
+        <v>9317.312672334559</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35816.787109375</v>
+        <v>9060.16162109375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9546590826728127</v>
+        <v>0.9547662805108463</v>
       </c>
       <c r="E10" t="n">
-        <v>35813.39311079546</v>
+        <v>9058.80819163603</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35126.818359375</v>
+        <v>8807.46435546875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9745454571463845</v>
+        <v>0.9625787805108463</v>
       </c>
       <c r="E11" t="n">
-        <v>35124.26953125</v>
+        <v>8806.18709788603</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34449.896484375</v>
+        <v>8561.05322265625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9727272878993641</v>
+        <v>0.9662552510990816</v>
       </c>
       <c r="E12" t="n">
-        <v>34447.87215909091</v>
+        <v>8559.739200367647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33785.259765625</v>
+        <v>8320.67626953125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9768181985074823</v>
+        <v>0.9610031527631423</v>
       </c>
       <c r="E13" t="n">
-        <v>33782.88565340909</v>
+        <v>8319.4423828125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.9095982015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33131.59375</v>
+        <v>8085.871826171875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9804545640945435</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E14" t="n">
-        <v>33129.79048295454</v>
+        <v>8084.687298943015</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32490.7685546875</v>
+        <v>7857.115478515625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9796591021797874</v>
+        <v>0.96875</v>
       </c>
       <c r="E15" t="n">
-        <v>32488.36292613636</v>
+        <v>7855.95272288603</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31860.787109375</v>
+        <v>7634.14306640625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9830681952563199</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E16" t="n">
-        <v>31858.43678977273</v>
+        <v>7632.840475643382</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31241.666015625</v>
+        <v>7416.61572265625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9822727387601679</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E17" t="n">
-        <v>31239.80166903409</v>
+        <v>7415.323299632353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.91796875</v>
       </c>
       <c r="C18" t="n">
-        <v>30633.33984375</v>
+        <v>7204.552490234375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9788602941176471</v>
       </c>
       <c r="E18" t="n">
-        <v>30632.12997159091</v>
+        <v>7203.39151539522</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C19" t="n">
-        <v>30037.5625</v>
+        <v>6998.05810546875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9797137590015635</v>
       </c>
       <c r="E19" t="n">
-        <v>30035.72887073864</v>
+        <v>6996.807272518382</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29451.841796875</v>
+        <v>6796.6005859375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E20" t="n">
-        <v>29450.06995738636</v>
+        <v>6795.51522288603</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28877.41796875</v>
+        <v>6600.817626953125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9837500127879056</v>
+        <v>0.984112395959742</v>
       </c>
       <c r="E21" t="n">
-        <v>28875.24520596591</v>
+        <v>6599.539895450368</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.91015625</v>
       </c>
       <c r="C22" t="n">
-        <v>28312.697265625</v>
+        <v>6409.283447265625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E22" t="n">
-        <v>28310.74058948864</v>
+        <v>6408.568100873162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27758.17578125</v>
+        <v>6223.44873046875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E23" t="n">
-        <v>27756.78480113636</v>
+        <v>6222.616009880515</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>27214.0791015625</v>
+        <v>6042.343994140625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E24" t="n">
-        <v>27212.84410511364</v>
+        <v>6041.529957490809</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26680.7255859375</v>
+        <v>5866.09130859375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E25" t="n">
-        <v>26679.00497159091</v>
+        <v>5865.177562040441</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9375</v>
+        <v>0.9135044515132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26156.15625</v>
+        <v>5694.341064453125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E26" t="n">
-        <v>26154.91796875</v>
+        <v>5693.495978860294</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25641.5458984375</v>
+        <v>5527.128662109375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E27" t="n">
-        <v>25640.52397017046</v>
+        <v>5526.348029641544</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.91015625</v>
       </c>
       <c r="C28" t="n">
-        <v>25137.0341796875</v>
+        <v>5364.343994140625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9942045482722196</v>
+        <v>0.9915309863931993</v>
       </c>
       <c r="E28" t="n">
-        <v>25135.62180397727</v>
+        <v>5363.632697610294</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24641.6015625</v>
+        <v>5205.98095703125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E29" t="n">
-        <v>24640.11203835227</v>
+        <v>5205.266831341912</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.91796875</v>
       </c>
       <c r="C30" t="n">
-        <v>24155.25390625</v>
+        <v>5051.632080078125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E30" t="n">
-        <v>24153.70703125</v>
+        <v>5051.095358455882</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9375</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23677.337890625</v>
+        <v>4901.805419921875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E31" t="n">
-        <v>23676.376953125</v>
+        <v>4901.101418887868</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23209.046875</v>
+        <v>4755.708740234375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9833245803328121</v>
       </c>
       <c r="E32" t="n">
-        <v>23207.943359375</v>
+        <v>4755.16064453125</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9296875</v>
       </c>
       <c r="C33" t="n">
-        <v>22749.39453125</v>
+        <v>4613.773681640625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E33" t="n">
-        <v>22748.21022727273</v>
+        <v>4613.064510569853</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C34" t="n">
-        <v>22297.9599609375</v>
+        <v>4475.54150390625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E34" t="n">
-        <v>22297.04225852273</v>
+        <v>4474.862448299632</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21855.45703125</v>
+        <v>4341.02001953125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E35" t="n">
-        <v>21854.34339488636</v>
+        <v>4340.415412454044</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C36" t="n">
-        <v>21420.5400390625</v>
+        <v>4210.171630859375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9868697489009184</v>
       </c>
       <c r="E36" t="n">
-        <v>21419.88689630682</v>
+        <v>4209.635569852941</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C37" t="n">
-        <v>20994.32421875</v>
+        <v>4082.90185546875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E37" t="n">
-        <v>20993.52041903409</v>
+        <v>4082.403090533088</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C38" t="n">
-        <v>20576.1171875</v>
+        <v>3959.04248046875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E38" t="n">
-        <v>20575.15447443182</v>
+        <v>3958.672377642463</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20165.7099609375</v>
+        <v>3838.860961914062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E39" t="n">
-        <v>20164.57120028409</v>
+        <v>3838.340619255515</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19762.4423828125</v>
+        <v>3721.799194335938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9971769942956812</v>
       </c>
       <c r="E40" t="n">
-        <v>19761.67471590909</v>
+        <v>3721.292624080882</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.92578125</v>
       </c>
       <c r="C41" t="n">
-        <v>19367.3466796875</v>
+        <v>3607.887573242188</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E41" t="n">
-        <v>19366.33061079546</v>
+        <v>3607.493049172794</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18979.75</v>
+        <v>3497.489013671875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9855567216873169</v>
       </c>
       <c r="E42" t="n">
-        <v>18978.38760653409</v>
+        <v>3496.880442899816</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18598.576171875</v>
+        <v>3389.8701171875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E43" t="n">
-        <v>18597.74058948864</v>
+        <v>3389.286735983456</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18224.974609375</v>
+        <v>3285.26953125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E44" t="n">
-        <v>18224.25799005682</v>
+        <v>3284.699118221507</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17858.9765625</v>
+        <v>3183.457397460938</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E45" t="n">
-        <v>17857.80770596591</v>
+        <v>3183.006721047794</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17499.060546875</v>
+        <v>3084.531982421875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E46" t="n">
-        <v>17498.18803267046</v>
+        <v>3084.177863625919</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.94140625</v>
       </c>
       <c r="C47" t="n">
-        <v>17145.9208984375</v>
+        <v>2988.358520507812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E47" t="n">
-        <v>17145.36558948864</v>
+        <v>2988.113999310662</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9296875</v>
       </c>
       <c r="C48" t="n">
-        <v>16799.884765625</v>
+        <v>2894.997314453125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E48" t="n">
-        <v>16799.1953125</v>
+        <v>2894.752297794118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16460.2431640625</v>
+        <v>2804.353271484375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E49" t="n">
-        <v>16459.51242897727</v>
+        <v>2804.02095301011</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16127.265625</v>
+        <v>2716.126831054688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E50" t="n">
-        <v>16126.22842684659</v>
+        <v>2715.842184627757</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,883 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C51" t="n">
-        <v>15799.96728515625</v>
+        <v>2630.416625976562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E51" t="n">
-        <v>15799.22203480114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15478.76611328125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15478.40491832386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15164.0068359375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15163.65154474432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14855.81787109375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14854.85023082386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14552.51904296875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14551.89852627841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14255.4970703125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14254.7109375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13963.79931640625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13963.13050426136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13677.7861328125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13677.11825284091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13397.16455078125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13396.48251065341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13122.07080078125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13121.19992897727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12851.76611328125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12851.16006747159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12586.73681640625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12586.26278409091</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12326.94140625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12326.43696732955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12072.31689453125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12071.57244318182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11822.08251953125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11821.56720525568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11577.1142578125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11576.35387073864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9099999964237213</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11336.59619140625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11335.82235440341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11100.40478515625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11099.88263494318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10869.0703125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10868.49742542614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10642.02783203125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10641.54918323864</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10419.564453125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10418.97114701705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10201.07177734375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10200.67755681818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9986.9443359375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9986.589044744318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9777.0439453125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9776.623845880682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9571.27001953125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9570.71883877841</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9369.23583984375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9368.796075994318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9171.03125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9170.790660511364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8976.92431640625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8976.626331676136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8786.67724609375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8786.237038352272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8600.0244140625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8599.5546875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9324999749660492</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8416.70849609375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8416.506569602272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5444444444444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5888888888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.006666666666666667</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.006666666666666667</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1266666666666667</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1266666666666667</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9917037037037038</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8133333333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8533333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8733333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8733333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9933333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9933333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9908518518518518</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2630.173354204963</v>
       </c>
     </row>
   </sheetData>
